--- a/results/by_outcome/full_results_income_observed.xlsx
+++ b/results/by_outcome/full_results_income_observed.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.933110169163297</v>
+        <v>0.933934515757714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0669599432648449</v>
+        <v>0.0661353206243123</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00007011242814</v>
+        <v>1.00006983638203</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0669552488697697</v>
+        <v>0.0661307022953231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0664628518094446</v>
+        <v>0.0659627311785311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0536236858458987</v>
+        <v>0.0530047004353736</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0860940206293623</v>
+        <v>0.0857567329439641</v>
       </c>
       <c r="N2" t="n">
-        <v>0.120086537655343</v>
+        <v>0.118967431613905</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.90063755780582</v>
+        <v>0.90118019596567</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0664675116813662</v>
+        <v>0.0659673377770252</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.8470101122731</v>
+        <v>0.848171793873787</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00248022833797689</v>
+        <v>0.00196805124185963</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.153049269499132</v>
+        <v>0.151887435239287</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0669552488697697</v>
+        <v>0.0661307022953231</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0150174871371632</v>
+        <v>-0.00190399304253661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.148927984876703</v>
+        <v>0.134165397633183</v>
       </c>
       <c r="F2" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120086537655343</v>
+        <v>0.118967431613905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0459651873102144</v>
+        <v>0.0684408346574217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.194207888000472</v>
+        <v>0.169494028570388</v>
       </c>
       <c r="F3" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.153049269499132</v>
+        <v>0.151887435239287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0768384106514988</v>
+        <v>0.0900915315987757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.229260128346765</v>
+        <v>0.213683338879799</v>
       </c>
       <c r="F4" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_income_observed.xlsx
+++ b/results/by_outcome/full_results_income_observed.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.933934515757714</v>
+        <v>0.97278525902507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0661353206243123</v>
+        <v>0.0272435083185367</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00006983638203</v>
+        <v>1.00002876734361</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0661307022953231</v>
+        <v>0.0272427246177168</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0659627311785311</v>
+        <v>0.0140584110959639</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0530047004353736</v>
+        <v>0.169719947404431</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0857567329439641</v>
+        <v>0.230056270645448</v>
       </c>
       <c r="N2" t="n">
-        <v>0.118967431613905</v>
+        <v>0.183778358500395</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.90118019596567</v>
+        <v>0.912447200068311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0659673377770252</v>
+        <v>0.0140588155191065</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.848171793873787</v>
+        <v>0.742722370271836</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00196805124185963</v>
+        <v>0</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.151887435239287</v>
+        <v>0.257298995263165</v>
       </c>
     </row>
   </sheetData>
@@ -594,13 +594,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0661307022953231</v>
+        <v>0.0272427246177168</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00190399304253661</v>
+        <v>-0.031019051702992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.134165397633183</v>
+        <v>0.0855045009384256</v>
       </c>
       <c r="F2" t="n">
         <v>948</v>
@@ -614,13 +614,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118967431613905</v>
+        <v>0.183778358500395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0684408346574217</v>
+        <v>0.148236280230852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169494028570388</v>
+        <v>0.219320436769938</v>
       </c>
       <c r="F3" t="n">
         <v>948</v>
@@ -634,13 +634,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.151887435239287</v>
+        <v>0.257298995263165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0900915315987757</v>
+        <v>0.216543929670222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.213683338879799</v>
+        <v>0.298054060856107</v>
       </c>
       <c r="F4" t="n">
         <v>948</v>
